--- a/biology/Zoologie/Echinus/Echinus.xlsx
+++ b/biology/Zoologie/Echinus/Echinus.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F4"/>
+  <dimension ref="A1:H4"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Echinus est un genre d'oursins de la famille des Echinidae.
 </t>
@@ -511,12 +523,14 @@
           <t>Caractéristiques</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">Ce sont des oursins réguliers : le test (coquille) est plus ou moins sphérique, protégé par des radioles (piquants), l'ensemble suivant une symétrie pentaradiaire (centrale d'ordre 5) reliant la bouche (péristome) située au centre de la face orale (inférieure) à l'anus (périprocte) situé à l'apex aboral (pôle supérieur).
-Ces oursins sont aussi caractérisés par certaines spécificités squelettiques : leur disque apical est dicyclique, leurs plaques ambulacraires trigéminées, avec des paires de pores formant des arcs obliques formant des bandes méridiennes droites, et seulement une sur deux ou trois porte un tubercule primaire (contrairement aux Gracilechinus). Les plaques interambulacraires portent un unique tubercule primaire en position centrale, peu différencié des tubercules secondaires, qui sont assez nombreux[1].
-Ces oursins sont apparus à la fin du Miocène, on les trouve aujourd'hui principalement dans l'Atlantique et en Méditerranée[1]. Ils peuvent supporter des eaux froides et de grandes profondeurs.
-Leur séparation avec le genre proche Gracilechinus est sujette à débat dans la communauté scientifique, notamment pour l'espèce Echinus acutus[2].
+Ces oursins sont aussi caractérisés par certaines spécificités squelettiques : leur disque apical est dicyclique, leurs plaques ambulacraires trigéminées, avec des paires de pores formant des arcs obliques formant des bandes méridiennes droites, et seulement une sur deux ou trois porte un tubercule primaire (contrairement aux Gracilechinus). Les plaques interambulacraires portent un unique tubercule primaire en position centrale, peu différencié des tubercules secondaires, qui sont assez nombreux.
+Ces oursins sont apparus à la fin du Miocène, on les trouve aujourd'hui principalement dans l'Atlantique et en Méditerranée. Ils peuvent supporter des eaux froides et de grandes profondeurs.
+Leur séparation avec le genre proche Gracilechinus est sujette à débat dans la communauté scientifique, notamment pour l'espèce Echinus acutus.
 			Echinus anchistus
 			Echinus esculentus.
 			Echinus melo
@@ -551,6 +565,8 @@
         </is>
       </c>
       <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
